--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -83,46 +83,42 @@
     <t>点击_xpath</t>
   </si>
   <si>
+    <t>清空输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门店 </t>
+  </si>
+  <si>
+    <t>点击-“门店”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常门店</t>
+  </si>
+  <si>
+    <t>正常门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入关键词搜索</t>
+  </si>
+  <si>
+    <t>新门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>检查点-输入关键词搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门店 </t>
-  </si>
-  <si>
-    <t>点击-“门店”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常门店</t>
-  </si>
-  <si>
-    <t>正常门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入关键词搜索</t>
-  </si>
-  <si>
-    <t>新门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-输入关键词搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点-新门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,10 @@
   </si>
   <si>
     <t>输入_classname门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-正常门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -947,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -971,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -985,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -999,13 +999,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1013,13 +1013,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1027,10 +1027,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1048,16 +1048,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1065,24 +1065,24 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1111,17 +1111,17 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1129,18 +1129,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1148,10 +1148,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1169,13 +1169,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1196,13 +1196,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -1210,13 +1210,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
@@ -1224,66 +1224,66 @@
         <v>9</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1292,18 +1292,18 @@
         <v>13512341234</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1311,10 +1311,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1335,10 +1335,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1356,114 +1356,114 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1481,16 +1481,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1508,13 +1508,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1532,16 +1532,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1559,13 +1559,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1583,16 +1583,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1610,16 +1610,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1637,30 +1637,30 @@
     </row>
     <row r="58" spans="1:6" s="20" customFormat="1">
       <c r="A58" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="14">
         <v>0</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1678,13 +1678,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1705,13 +1705,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1719,24 +1719,24 @@
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1744,10 +1744,10 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1765,17 +1765,17 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -405,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +441,9 @@
   <si>
     <t>检查点-正常门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -858,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -974,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>21</v>
@@ -1079,10 +1078,10 @@
         <v>38</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1111,10 +1110,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="1" t="s">
@@ -1202,7 +1201,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -1249,7 +1248,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -1460,7 +1459,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>98</v>
@@ -1511,7 +1510,7 @@
         <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>84</v>
@@ -1562,7 +1561,7 @@
         <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>84</v>
@@ -1640,7 +1639,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="14">
         <v>0</v>
@@ -1660,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1765,10 +1764,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="1" t="s">

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,11 @@
   </si>
   <si>
     <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -857,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -1561,7 +1566,7 @@
         <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>84</v>

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,13 +339,6 @@
   </si>
   <si>
     <t>上传图片</t>
-  </si>
-  <si>
-    <t>上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,7 +440,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>el-icon-plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传-调用autoit上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +503,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -539,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -580,6 +584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -871,7 +876,7 @@
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1"/>
@@ -978,7 +983,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>21</v>
@@ -1083,10 +1088,10 @@
         <v>38</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1115,10 +1120,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="1" t="s">
@@ -1206,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -1253,7 +1258,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -1304,7 +1309,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>62</v>
@@ -1461,13 +1466,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1488,7 +1493,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1510,15 +1515,16 @@
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" customFormat="1">
       <c r="A48" t="s">
         <v>82</v>
       </c>
+      <c r="B48" s="16"/>
       <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1561,15 +1567,16 @@
       </c>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="6" t="s">
-        <v>83</v>
-      </c>
+    <row r="52" spans="1:6" customFormat="1">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="16"/>
       <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1590,13 +1597,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1617,13 +1624,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1644,13 +1651,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" s="14">
         <v>0</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1658,13 +1665,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1685,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1712,10 +1719,10 @@
         <v>58</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1737,10 +1744,10 @@
         <v>38</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1769,10 +1776,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="1" t="s">

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -436,16 +436,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上传-调用autoit上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -868,7 +867,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -1493,7 +1492,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1521,10 +1520,10 @@
       </c>
       <c r="B48" s="16"/>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1573,10 +1572,10 @@
       </c>
       <c r="B52" s="16"/>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -444,7 +444,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>

--- a/moyusi/Keywords/Web/门店模块-开店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-开店.xlsx
@@ -444,7 +444,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
